--- a/src/analysis_examples/circadb/results_jtk/cosinor_10546370_grip2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10546370_grip2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.18515771513449614, 0.3080463584599801]</t>
+          <t>[0.1877784917574516, 0.3054255818370246]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.146557786022242e-08</v>
+        <v>2.020237732658359e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>4.146557786022242e-08</v>
+        <v>2.020237732658359e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.7170001251436169</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3988954459214191, 0.4607046154468575]</t>
+          <t>[0.3988523591966842, 0.4607477021715924]</t>
         </is>
       </c>
       <c r="U2" t="n">
